--- a/excel/dsp1-4.xlsx
+++ b/excel/dsp1-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Yuuki/DSP1/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E903B81-2243-E442-BAC0-9FDB5DC8CCA3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19512A28-03DB-2C46-A436-5956118EADA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="14500" xr2:uid="{0001C046-4F24-4D41-A648-8186EEDEA428}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$3:$E$73</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$73</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$3:$H$74</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$3:$H$74</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4485,7 +4485,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4522,6 +4522,7 @@
         <c:crossAx val="911717920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="911717920"/>
@@ -4565,7 +4566,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>相互相関係数</a:t>
+                  <a:t>相互相関関数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4653,16 +4654,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6839,217 +6833,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0.30327700000000002</c:v>
+                  <c:v>0.180281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.275814</c:v>
+                  <c:v>0.13009100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20977299999999999</c:v>
+                  <c:v>5.1770999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128742</c:v>
+                  <c:v>-7.8869999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3892000000000002E-2</c:v>
+                  <c:v>-1.4604000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.3940000000000004E-3</c:v>
+                  <c:v>1.585E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.2304999999999997E-2</c:v>
+                  <c:v>3.5449000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.4943000000000005E-2</c:v>
+                  <c:v>2.6317E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.103603</c:v>
+                  <c:v>-2.81E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.105411</c:v>
+                  <c:v>-2.7622000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.8723999999999997E-2</c:v>
+                  <c:v>-2.7261000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.4115999999999997E-2</c:v>
+                  <c:v>-1.8533000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.1770000000000002E-3</c:v>
+                  <c:v>-1.4468999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3875999999999998E-2</c:v>
+                  <c:v>-2.3899E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1327000000000005E-2</c:v>
+                  <c:v>-3.9101999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12908500000000001</c:v>
+                  <c:v>-4.3154999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15213099999999999</c:v>
+                  <c:v>-4.0538999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15658</c:v>
+                  <c:v>-3.9510000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14253299999999999</c:v>
+                  <c:v>-4.6232000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.114023</c:v>
+                  <c:v>-5.8012000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6860999999999999E-2</c:v>
+                  <c:v>-5.6571999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5157000000000001E-2</c:v>
+                  <c:v>-4.0767999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.5129999999999997E-3</c:v>
+                  <c:v>-1.8314E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-5.1656000000000001E-2</c:v>
+                  <c:v>-3.0630000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.0671000000000002E-2</c:v>
+                  <c:v>-4.4929999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.121242</c:v>
+                  <c:v>-1.2496E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.139292</c:v>
+                  <c:v>-1.4474000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.14289099999999999</c:v>
+                  <c:v>-2.9580000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.13373199999999999</c:v>
+                  <c:v>1.5751999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.116234</c:v>
+                  <c:v>2.3196999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.4999E-2</c:v>
+                  <c:v>1.3220000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-7.2210999999999997E-2</c:v>
+                  <c:v>-5.7790000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.8555000000000001E-2</c:v>
+                  <c:v>-9.4500000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.5481E-2</c:v>
+                  <c:v>1.8079999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.3309999999999998E-3</c:v>
+                  <c:v>6.0822000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4400000000000001E-4</c:v>
+                  <c:v>9.0798000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6.914E-3</c:v>
+                  <c:v>7.7901999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.9014000000000002E-2</c:v>
+                  <c:v>4.0076000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.0200999999999998E-2</c:v>
+                  <c:v>5.3730000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-9.0232000000000007E-2</c:v>
+                  <c:v>-8.3639999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.110014</c:v>
+                  <c:v>2.0219999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.116006</c:v>
+                  <c:v>1.5689000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.10971599999999999</c:v>
+                  <c:v>1.5717999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-9.5596E-2</c:v>
+                  <c:v>4.0119999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-7.8273999999999996E-2</c:v>
+                  <c:v>-9.9229999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-6.2038999999999997E-2</c:v>
+                  <c:v>-1.4746E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.9652000000000002E-2</c:v>
+                  <c:v>-1.1204E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.2065999999999999E-2</c:v>
+                  <c:v>-9.5149999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.8594000000000003E-2</c:v>
+                  <c:v>-1.1047E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.8603999999999999E-2</c:v>
+                  <c:v>-1.4057999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.351E-2</c:v>
+                  <c:v>-1.2664999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5.4792E-2</c:v>
+                  <c:v>-7.7289999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-7.0641999999999996E-2</c:v>
+                  <c:v>-7.0569999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.5569999999999993E-2</c:v>
+                  <c:v>-1.4184E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-9.2882999999999993E-2</c:v>
+                  <c:v>-2.3247E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.7637000000000007E-2</c:v>
+                  <c:v>-2.5541999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-6.7896999999999999E-2</c:v>
+                  <c:v>-1.7146999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.5560000000000001E-2</c:v>
+                  <c:v>-4.8580000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7520000000000001E-3</c:v>
+                  <c:v>2.5479999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1763000000000002E-2</c:v>
+                  <c:v>2.4580000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0264999999999994E-2</c:v>
+                  <c:v>9.5000000000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.4494E-2</c:v>
+                  <c:v>-7.9299999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4792999999999993E-2</c:v>
+                  <c:v>3.163E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.4733999999999995E-2</c:v>
+                  <c:v>6.143E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.8215999999999997E-2</c:v>
+                  <c:v>6.2449999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.6824999999999997E-2</c:v>
+                  <c:v>2.4589999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.8200000000000006E-3</c:v>
+                  <c:v>-2.032E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.3060000000000001E-2</c:v>
+                  <c:v>-2.1919999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-5.8425999999999999E-2</c:v>
+                  <c:v>3.7090000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.9629E-2</c:v>
+                  <c:v>8.3499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.110455</c:v>
+                  <c:v>1.0008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7093,10 +7087,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7133,6 +7187,7 @@
         <c:crossAx val="904159984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="904159984"/>
@@ -7155,6 +7210,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>自己相関関数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7209,16 +7319,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -15785,10 +15888,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15803,7 +15966,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -15847,6 +16010,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>音声データ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15901,16 +16119,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -18341,10 +18552,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -18381,6 +18652,7 @@
         <c:crossAx val="910466144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="910466144"/>
@@ -18403,6 +18675,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>音声データ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18457,16 +18784,783 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1250000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6250000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.375E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3750000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3750000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3750000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1250000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3750000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.1250000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.3750000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.6250000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7500000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.18252199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1464000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3906999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0847000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6083E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1514000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5203999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3839999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1721000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0962000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2078E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.7839999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6547999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.3206000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.4499000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.0819999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.2088000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.1393000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.3899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.6802E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.3581999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9568000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0891E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2685E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.3525000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.3789000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.5649999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1475999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4486000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.1720000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2900000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8894000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.131823</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17113600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13247200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.3240999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.7640000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8844E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1493E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7317999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.27E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5919999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8578999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.1184999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.1384999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.0330000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.6405999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.1498000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.5111000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.1395999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.1614E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.1958999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.1858999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.6669000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.4012999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.8443E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.1445E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3431999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.3897000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.5316999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.062E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4885000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.3093999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3256E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.3571E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.5560000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8292999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13625399999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.18252199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA88-3248-9406-6C0096ABF74F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338655615"/>
+        <c:axId val="338578511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338655615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338578511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338578511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>自己相関関数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338655615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -18610,6 +19704,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20713,6 +21847,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20860,6 +22510,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316366</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>221569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125866</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>220662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52FD36D-F629-2943-A45C-1ED311858BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21165,15 +22851,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D94F312-55DB-A245-80D2-E26CE0BEA03A}">
-  <dimension ref="A2:G703"/>
+  <dimension ref="A2:H703"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="112" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -21190,7 +22876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -21211,10 +22897,13 @@
         <v>2.5115999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>0.30327700000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.180281</v>
+      </c>
+      <c r="H3">
+        <v>0.18252199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21235,10 +22924,13 @@
         <v>2.9968000000000002E-2</v>
       </c>
       <c r="G4">
-        <v>0.275814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.13009100000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.133658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -21259,10 +22951,13 @@
         <v>3.3408E-2</v>
       </c>
       <c r="G5">
-        <v>0.20977299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>5.1770999999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.1464000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -21283,10 +22978,13 @@
         <v>3.4377999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>0.128742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-7.8869999999999999E-3</v>
+      </c>
+      <c r="H6">
+        <v>-1.3906999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -21307,10 +23005,13 @@
         <v>3.2224000000000003E-2</v>
       </c>
       <c r="G7">
-        <v>5.3892000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-1.4604000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>-2.0847000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -21331,10 +23032,13 @@
         <v>2.7087E-2</v>
       </c>
       <c r="G8">
-        <v>-6.3940000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1.585E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.6083E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -21355,10 +23059,13 @@
         <v>1.9911000000000002E-2</v>
       </c>
       <c r="G9">
-        <v>-5.2304999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3.5449000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>4.1514000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -21379,10 +23086,13 @@
         <v>1.2031999999999999E-2</v>
       </c>
       <c r="G10">
-        <v>-8.4943000000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>2.6317E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.5203999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -21403,10 +23113,13 @@
         <v>4.6119999999999998E-3</v>
       </c>
       <c r="G11">
-        <v>-0.103603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.81E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.3839999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -21427,10 +23140,13 @@
         <v>-1.606E-3</v>
       </c>
       <c r="G12">
-        <v>-0.105411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-2.7622000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>-2.1721000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -21451,10 +23167,13 @@
         <v>-6.3400000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>-8.8723999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-2.7261000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>-2.0962000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -21475,10 +23194,13 @@
         <v>-9.4330000000000004E-3</v>
       </c>
       <c r="G14">
-        <v>-5.4115999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-1.8533000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>-1.2078E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
@@ -21499,10 +23221,13 @@
         <v>-1.0694E-2</v>
       </c>
       <c r="G15">
-        <v>-7.1770000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-1.4468999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>-9.7839999999999993E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
@@ -21523,10 +23248,13 @@
         <v>-9.8820000000000002E-3</v>
       </c>
       <c r="G16">
-        <v>4.3875999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-2.3899E-2</v>
+      </c>
+      <c r="H16">
+        <v>-2.6547999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>14</v>
       </c>
@@ -21547,10 +23275,13 @@
         <v>-6.9420000000000003E-3</v>
       </c>
       <c r="G17">
-        <v>9.1327000000000005E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-3.9101999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <v>-5.3206000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>15</v>
       </c>
@@ -21571,10 +23302,13 @@
         <v>-2.2560000000000002E-3</v>
       </c>
       <c r="G18">
-        <v>0.12908500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-4.3154999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>-6.4499000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>16</v>
       </c>
@@ -21595,10 +23329,13 @@
         <v>3.3549999999999999E-3</v>
       </c>
       <c r="G19">
-        <v>0.15213099999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-4.0538999999999999E-2</v>
+      </c>
+      <c r="H19">
+        <v>-6.0819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>17</v>
       </c>
@@ -21619,10 +23356,13 @@
         <v>8.9289999999999994E-3</v>
       </c>
       <c r="G20">
-        <v>0.15658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-3.9510000000000003E-2</v>
+      </c>
+      <c r="H20">
+        <v>-5.2088000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>18</v>
       </c>
@@ -21643,10 +23383,13 @@
         <v>1.3648E-2</v>
       </c>
       <c r="G21">
-        <v>0.14253299999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-4.6232000000000002E-2</v>
+      </c>
+      <c r="H21">
+        <v>-5.1393000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>19</v>
       </c>
@@ -21667,10 +23410,13 @@
         <v>1.6938000000000002E-2</v>
       </c>
       <c r="G22">
-        <v>0.114023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-5.8012000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>-6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>20</v>
       </c>
@@ -21691,10 +23437,13 @@
         <v>1.8422000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>7.6860999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-5.6571999999999997E-2</v>
+      </c>
+      <c r="H23">
+        <v>-6.6802E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>21</v>
       </c>
@@ -21715,10 +23464,13 @@
         <v>1.7899000000000002E-2</v>
       </c>
       <c r="G24">
-        <v>3.5157000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-4.0767999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>-5.3581999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>22</v>
       </c>
@@ -21739,10 +23491,13 @@
         <v>1.5394E-2</v>
       </c>
       <c r="G25">
-        <v>-8.5129999999999997E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-1.8314E-2</v>
+      </c>
+      <c r="H25">
+        <v>-2.9568000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>23</v>
       </c>
@@ -21763,10 +23518,13 @@
         <v>1.1180000000000001E-2</v>
       </c>
       <c r="G26">
-        <v>-5.1656000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-3.0630000000000002E-3</v>
+      </c>
+      <c r="H26">
+        <v>-1.0891E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>24</v>
       </c>
@@ -21787,10 +23545,13 @@
         <v>5.738E-3</v>
       </c>
       <c r="G27">
-        <v>-9.0671000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-4.4929999999999996E-3</v>
+      </c>
+      <c r="H27">
+        <v>-1.2685E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>25</v>
       </c>
@@ -21811,10 +23572,13 @@
         <v>-2.7700000000000001E-4</v>
       </c>
       <c r="G28">
-        <v>-0.121242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-1.2496E-2</v>
+      </c>
+      <c r="H28">
+        <v>-2.3525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>26</v>
       </c>
@@ -21835,10 +23599,13 @@
         <v>-6.1139999999999996E-3</v>
       </c>
       <c r="G29">
-        <v>-0.139292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-1.4474000000000001E-2</v>
+      </c>
+      <c r="H29">
+        <v>-2.3789000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>27</v>
       </c>
@@ -21859,10 +23626,13 @@
         <v>-1.1121000000000001E-2</v>
       </c>
       <c r="G30">
-        <v>-0.14289099999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-2.9580000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>-4.5649999999999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>28</v>
       </c>
@@ -21883,10 +23653,13 @@
         <v>-1.4846E-2</v>
       </c>
       <c r="G31">
-        <v>-0.13373199999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1.5751999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.2720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>29</v>
       </c>
@@ -21907,10 +23680,13 @@
         <v>-1.7051E-2</v>
       </c>
       <c r="G32">
-        <v>-0.116234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>2.3196999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>3.1475999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>30</v>
       </c>
@@ -21931,10 +23707,13 @@
         <v>-1.7642999999999999E-2</v>
       </c>
       <c r="G33">
-        <v>-9.4999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1.3220000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.4486000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>31</v>
       </c>
@@ -21955,10 +23734,13 @@
         <v>-1.6663000000000001E-2</v>
       </c>
       <c r="G34">
-        <v>-7.2210999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-5.7790000000000003E-3</v>
+      </c>
+      <c r="H34">
+        <v>-8.1720000000000004E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>32</v>
       </c>
@@ -21979,10 +23761,13 @@
         <v>-1.4326E-2</v>
       </c>
       <c r="G35">
-        <v>-4.8555000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-9.4500000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <v>9.2900000000000003E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>33</v>
       </c>
@@ -22003,10 +23788,13 @@
         <v>-1.1056E-2</v>
       </c>
       <c r="G36">
-        <v>-2.5481E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1.8079999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <v>5.8894000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>34</v>
       </c>
@@ -22027,10 +23815,13 @@
         <v>-7.4400000000000004E-3</v>
       </c>
       <c r="G37">
-        <v>-7.3309999999999998E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>6.0822000000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.131823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>35</v>
       </c>
@@ -22051,10 +23842,13 @@
         <v>-4.0239999999999998E-3</v>
       </c>
       <c r="G38">
-        <v>3.4400000000000001E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>9.0798000000000004E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.17113600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>36</v>
       </c>
@@ -22075,10 +23869,13 @@
         <v>-1.2110000000000001E-3</v>
       </c>
       <c r="G39">
-        <v>-6.914E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>7.7901999999999999E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.13247200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>37</v>
       </c>
@@ -22099,10 +23896,13 @@
         <v>7.5199999999999996E-4</v>
       </c>
       <c r="G40">
-        <v>-2.9014000000000002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>4.0076000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>5.3240999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>38</v>
       </c>
@@ -22123,10 +23923,13 @@
         <v>1.702E-3</v>
       </c>
       <c r="G41">
-        <v>-6.0200999999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>5.3730000000000002E-3</v>
+      </c>
+      <c r="H41">
+        <v>-7.7640000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>39</v>
       </c>
@@ -22147,10 +23950,13 @@
         <v>1.511E-3</v>
       </c>
       <c r="G42">
-        <v>-9.0232000000000007E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-8.3639999999999999E-3</v>
+      </c>
+      <c r="H42">
+        <v>-1.8844E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>40</v>
       </c>
@@ -22171,10 +23977,13 @@
         <v>4.1E-5</v>
       </c>
       <c r="G43">
-        <v>-0.110014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>2.0219999999999999E-3</v>
+      </c>
+      <c r="H43">
+        <v>1.1493E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>41</v>
       </c>
@@ -22195,10 +24004,13 @@
         <v>-2.7139999999999998E-3</v>
       </c>
       <c r="G44">
-        <v>-0.116006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1.5689000000000002E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.7317999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>42</v>
       </c>
@@ -22219,10 +24031,13 @@
         <v>-6.4929999999999996E-3</v>
       </c>
       <c r="G45">
-        <v>-0.10971599999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1.5717999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>43</v>
       </c>
@@ -22243,10 +24058,13 @@
         <v>-1.0718E-2</v>
       </c>
       <c r="G46">
-        <v>-9.5596E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>4.0119999999999999E-3</v>
+      </c>
+      <c r="H46">
+        <v>5.5919999999999997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>44</v>
       </c>
@@ -22267,10 +24085,13 @@
         <v>-1.4678E-2</v>
       </c>
       <c r="G47">
-        <v>-7.8273999999999996E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-9.9229999999999995E-3</v>
+      </c>
+      <c r="H47">
+        <v>-1.8578999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>45</v>
       </c>
@@ -22291,10 +24112,13 @@
         <v>-1.7774999999999999E-2</v>
       </c>
       <c r="G48">
-        <v>-6.2038999999999997E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-1.4746E-2</v>
+      </c>
+      <c r="H48">
+        <v>-2.1184999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>46</v>
       </c>
@@ -22315,10 +24139,13 @@
         <v>-1.9743E-2</v>
       </c>
       <c r="G49">
-        <v>-4.9652000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-1.1204E-2</v>
+      </c>
+      <c r="H49">
+        <v>-1.1384999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>47</v>
       </c>
@@ -22339,10 +24166,13 @@
         <v>-2.0684999999999999E-2</v>
       </c>
       <c r="G50">
-        <v>-4.2065999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-9.5149999999999992E-3</v>
+      </c>
+      <c r="H50">
+        <v>-1.0330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>48</v>
       </c>
@@ -22363,10 +24193,13 @@
         <v>-2.0905E-2</v>
       </c>
       <c r="G51">
-        <v>-3.8594000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-1.1047E-2</v>
+      </c>
+      <c r="H51">
+        <v>-2.6405999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>49</v>
       </c>
@@ -22387,10 +24220,13 @@
         <v>-2.0771999999999999E-2</v>
       </c>
       <c r="G52">
-        <v>-3.8603999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-1.4057999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>-5.1498000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>50</v>
       </c>
@@ -22411,10 +24247,13 @@
         <v>-2.0500000000000001E-2</v>
       </c>
       <c r="G53">
-        <v>-4.351E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-1.2664999999999999E-2</v>
+      </c>
+      <c r="H53">
+        <v>-6.5111000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>51</v>
       </c>
@@ -22435,10 +24274,13 @@
         <v>-2.0086E-2</v>
       </c>
       <c r="G54">
-        <v>-5.4792E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-7.7289999999999998E-3</v>
+      </c>
+      <c r="H54">
+        <v>-6.1395999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>52</v>
       </c>
@@ -22459,10 +24301,13 @@
         <v>-1.9428999999999998E-2</v>
       </c>
       <c r="G55">
-        <v>-7.0641999999999996E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-7.0569999999999999E-3</v>
+      </c>
+      <c r="H55">
+        <v>-5.1614E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>53</v>
       </c>
@@ -22483,10 +24328,13 @@
         <v>-1.8606999999999999E-2</v>
       </c>
       <c r="G56">
-        <v>-8.5569999999999993E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-1.4184E-2</v>
+      </c>
+      <c r="H56">
+        <v>-5.1958999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>54</v>
       </c>
@@ -22507,10 +24355,13 @@
         <v>-1.788E-2</v>
       </c>
       <c r="G57">
-        <v>-9.2882999999999993E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-2.3247E-2</v>
+      </c>
+      <c r="H57">
+        <v>-6.1858999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>55</v>
       </c>
@@ -22531,10 +24382,13 @@
         <v>-1.7469999999999999E-2</v>
       </c>
       <c r="G58">
-        <v>-8.7637000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-2.5541999999999999E-2</v>
+      </c>
+      <c r="H58">
+        <v>-6.6669000000000006E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>56</v>
       </c>
@@ -22555,10 +24409,13 @@
         <v>-1.7346E-2</v>
       </c>
       <c r="G59">
-        <v>-6.7896999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-1.7146999999999999E-2</v>
+      </c>
+      <c r="H59">
+        <v>-5.4012999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>57</v>
       </c>
@@ -22579,10 +24436,13 @@
         <v>-1.7201999999999999E-2</v>
       </c>
       <c r="G60">
-        <v>-3.5560000000000001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-4.8580000000000003E-3</v>
+      </c>
+      <c r="H60">
+        <v>-2.8443E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>58</v>
       </c>
@@ -22603,10 +24463,13 @@
         <v>-1.6681999999999999E-2</v>
       </c>
       <c r="G61">
-        <v>3.7520000000000001E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>2.5479999999999999E-3</v>
+      </c>
+      <c r="H61">
+        <v>-1.1445E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>59</v>
       </c>
@@ -22627,10 +24490,13 @@
         <v>-1.5563E-2</v>
       </c>
       <c r="G62">
-        <v>4.1763000000000002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>2.4580000000000001E-3</v>
+      </c>
+      <c r="H62">
+        <v>-1.3431999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>60</v>
       </c>
@@ -22651,10 +24517,13 @@
         <v>-1.3734E-2</v>
       </c>
       <c r="G63">
-        <v>7.0264999999999994E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="H63">
+        <v>-2.3897000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>61</v>
       </c>
@@ -22675,10 +24544,13 @@
         <v>-1.1219E-2</v>
       </c>
       <c r="G64">
-        <v>8.4494E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-7.9299999999999998E-4</v>
+      </c>
+      <c r="H64">
+        <v>-2.5316999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>62</v>
       </c>
@@ -22699,10 +24571,13 @@
         <v>-8.2260000000000007E-3</v>
       </c>
       <c r="G65">
-        <v>8.4792999999999993E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>3.163E-3</v>
+      </c>
+      <c r="H65">
+        <v>-2.062E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>63</v>
       </c>
@@ -22723,10 +24598,13 @@
         <v>-5.2700000000000004E-3</v>
       </c>
       <c r="G66">
-        <v>7.4733999999999995E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>6.143E-3</v>
+      </c>
+      <c r="H66">
+        <v>2.4885000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>64</v>
       </c>
@@ -22747,10 +24625,13 @@
         <v>-3.0079999999999998E-3</v>
       </c>
       <c r="G67">
-        <v>5.8215999999999997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>6.2449999999999997E-3</v>
+      </c>
+      <c r="H67">
+        <v>3.3093999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>65</v>
       </c>
@@ -22771,10 +24652,13 @@
         <v>-2E-3</v>
       </c>
       <c r="G68">
-        <v>3.6824999999999997E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>2.4589999999999998E-3</v>
+      </c>
+      <c r="H68">
+        <v>1.3256E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>66</v>
       </c>
@@ -22795,10 +24679,13 @@
         <v>-2.4620000000000002E-3</v>
       </c>
       <c r="G69">
-        <v>9.8200000000000006E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-2.032E-3</v>
+      </c>
+      <c r="H69">
+        <v>-1.3571E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>67</v>
       </c>
@@ -22819,10 +24706,13 @@
         <v>-4.0920000000000002E-3</v>
       </c>
       <c r="G70">
-        <v>-2.3060000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-2.1919999999999999E-3</v>
+      </c>
+      <c r="H70">
+        <v>-3.5560000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>68</v>
       </c>
@@ -22843,10 +24733,13 @@
         <v>-6.3229999999999996E-3</v>
       </c>
       <c r="G71">
-        <v>-5.8425999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3.7090000000000001E-3</v>
+      </c>
+      <c r="H71">
+        <v>5.8292999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>69</v>
       </c>
@@ -22867,10 +24760,13 @@
         <v>-8.6440000000000006E-3</v>
       </c>
       <c r="G72">
-        <v>-8.9629E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>8.3499999999999998E-3</v>
+      </c>
+      <c r="H72">
+        <v>0.13625399999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>70</v>
       </c>
@@ -22891,10 +24787,13 @@
         <v>-1.0949E-2</v>
       </c>
       <c r="G73">
-        <v>-0.110455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>1.0008E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.18252199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>71</v>
       </c>
@@ -22912,7 +24811,7 @@
         <v>-1.3266E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>72</v>
       </c>
@@ -22930,7 +24829,7 @@
         <v>-1.5388000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>73</v>
       </c>
@@ -22948,7 +24847,7 @@
         <v>-1.6614E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>74</v>
       </c>
@@ -22966,7 +24865,7 @@
         <v>-1.6192000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>75</v>
       </c>
@@ -22984,7 +24883,7 @@
         <v>-1.3743E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>76</v>
       </c>
@@ -23002,7 +24901,7 @@
         <v>-9.4859999999999996E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>77</v>
       </c>
